--- a/document/input.xlsx
+++ b/document/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasad\Documents\notebook\Angular\Projects\train-diagram-app\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC008753-A5EB-4BE9-A807-457754CC6F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD6AD80-DAA4-42D5-8E9E-FCEA2AF35DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="-15555" windowWidth="14445" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train_timetable" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="99">
   <si>
     <t>駅名</t>
     <rPh sb="0" eb="2">
@@ -576,6 +576,34 @@
   </si>
   <si>
     <t>MG0646</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MGR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JN0627</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JN0634</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JN0643</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JN0646</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JN0654</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JN0700</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -632,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2124169-32B8-4170-B24D-430674F48FE1}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1347,561 +1378,1841 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="3">
-        <v>0.27638888888888891</v>
+      <c r="F22" s="5">
+        <v>0.26874999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E23" s="3">
-        <v>0.27708333333333335</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.27777777777777779</v>
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.27013888888888887</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3">
-        <v>0.27916666666666667</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.27916666666666667</v>
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.2722222222222222</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3">
-        <v>0.28055555555555556</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.28055555555555556</v>
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.27291666666666664</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3">
-        <v>0.28194444444444444</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.28263888888888888</v>
+        <v>0.27430555555555558</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.27430555555555558</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E27" s="3">
-        <v>0.28402777777777777</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.28611111111111109</v>
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.27569444444444446</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3">
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.28749999999999998</v>
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E29" s="3">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.28888888888888886</v>
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.27916666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E30" s="3">
-        <v>0.28958333333333336</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.2902777777777778</v>
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.28125</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E31" s="3">
-        <v>0.29097222222222224</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.29166666666666669</v>
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.29236111111111113</v>
-      </c>
-      <c r="F32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.27361111111111114</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.29305555555555557</v>
+        <v>9</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E34" s="3">
-        <v>0.29375000000000001</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.29375000000000001</v>
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3">
-        <v>0.29444444444444445</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>87</v>
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.27916666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.27847222222222223</v>
+        <v>12</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.28055555555555556</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E37" s="3">
-        <v>0.28055555555555556</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.28125</v>
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.28194444444444444</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3">
-        <v>0.28263888888888888</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.28263888888888888</v>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.28402777777777777</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E39" s="3">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.28472222222222221</v>
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.28611111111111109</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3">
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>87</v>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.28819444444444442</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.29097222222222224</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.29236111111111113</v>
-      </c>
-      <c r="F42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.27986111111111112</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="3">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="F43" s="5">
         <v>0.28125</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E44" s="3">
-        <v>0.28402777777777777</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.28472222222222221</v>
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.28333333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E45" s="3">
-        <v>0.30069444444444443</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>87</v>
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.28472222222222221</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.28194444444444444</v>
+        <v>12</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.28611111111111109</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.28611111111111109</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E47" s="3">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>87</v>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.28749999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.28680555555555554</v>
+        <v>14</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.28958333333333336</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.29375000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.28194444444444444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.28541666666666665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.28680555555555554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.28819444444444442</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.28888888888888886</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.28958333333333336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.29375000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.29583333333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.28958333333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.29305555555555557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.2951388888888889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.29583333333333334</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.29791666666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.30208333333333331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.28958333333333336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.29305555555555557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.2951388888888889</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.29583333333333334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.29791666666666666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.30208333333333331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.27638888888888891</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.27916666666666667</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.27916666666666667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0.28055555555555556</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.28263888888888888</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0.28611111111111109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0.28888888888888886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.2902777777777778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.29305555555555557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.29375000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.27847222222222223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.28263888888888888</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>86</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.29097222222222224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" t="s">
+        <v>48</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.28194444444444444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
         <v>90</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B108" t="s">
         <v>77</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C108" t="s">
         <v>85</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D108" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0.28680555555555554</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="5">
+        <v>0.28819444444444442</v>
+      </c>
+      <c r="F109" s="3">
+        <v>0.28819444444444442</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" t="s">
+        <v>85</v>
+      </c>
+      <c r="D110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="F110" s="3">
+        <v>0.29097222222222224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F112" s="3">
+        <v>0.29583333333333334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" t="s">
+        <v>85</v>
+      </c>
+      <c r="D113" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E113" s="3">
         <v>0.29791666666666666</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1915,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2314,7 +3625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA22D644-D49F-4243-8360-C9341457E3FA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
